--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.4</t>
+    <t>0.4.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T13:48:16-05:00</t>
+    <t>2024-02-13T22:51:57-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T22:51:57-06:00</t>
+    <t>2024-04-24T11:28:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.5</t>
+    <t>0.4.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T11:28:13-05:00</t>
+    <t>2024-05-22T11:48:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T20:42:33-05:00</t>
+    <t>2024-07-11T23:09:29-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +72,12 @@
     <t>MITRE (https://open-health-manager.github.io/standard-patient-health-record-ig)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -94,9 +100,6 @@
   </si>
   <si>
     <t>All codes</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -236,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,20 +339,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -371,28 +382,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Apple HealthKit " r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://open-health-manager.github.io/standard-patient-health-record-ig/ValueSet/apple-health-kit-workout-event-type-value-set</t>
+    <t>http://hl7.org/fhir/uv/sphr/ValueSet/apple-health-kit-workout-event-type-value-set</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.6</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,58 +54,64 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T23:09:29-05:00</t>
+    <t>2024-12-11T01:07:49-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MITRE</t>
+    <t>HL7 International / Patient Empowerment</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MITRE (https://open-health-manager.github.io/standard-patient-health-record-ig)</t>
+    <t>HL7 International / Patient Empowerment (http://www.hl7.org/Special/committees/patientempowerment)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Possible values for AppleHealthKitWorkoutEvent.type</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Possible values for AppleHealthKitWorkoutEvent.type</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>https://open-health-manager.github.io/standard-patient-health-record-ig/CodeSystem/apple-health-kit-workout-event-type-code-system</t>
+    <t>http://hl7.org/fhir/uv/sphr/CodeSystem/apple-health-kit-workout-event-type-code-system</t>
   </si>
 </sst>
 </file>
@@ -301,66 +307,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -382,28 +390,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/ValueSet/apple-health-kit-workout-event-type-value-set</t>
+    <t>http://hl7.org/fhir/uv/phr/ValueSet/apple-health-kit-workout-event-type-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T01:07:49-06:00</t>
+    <t>2024-12-13T21:36:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/CodeSystem/apple-health-kit-workout-event-type-code-system</t>
+    <t>http://hl7.org/fhir/uv/phr/CodeSystem/apple-health-kit-workout-event-type-code-system</t>
   </si>
 </sst>
 </file>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T21:36:12-06:00</t>
+    <t>2024-12-15T10:45:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T10:45:04-06:00</t>
+    <t>2024-12-15T12:17:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:17:17-06:00</t>
+    <t>2024-12-15T12:20:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:20:20-06:00</t>
+    <t>2024-12-15T20:08:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T20:08:17-06:00</t>
+    <t>2024-12-18T01:48:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
+++ b/public/ValueSet-apple-health-kit-workout-event-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T01:48:59-06:00</t>
+    <t>2024-12-18T11:20:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
